--- a/Question/Languages/C#/C#_A.xlsx
+++ b/Question/Languages/C#/C#_A.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zaman\Desktop\RP\Question\Languages\C#\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{016E4806-00C2-4C97-A41B-04C90BD346AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,10 +24,29 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+  <si>
+    <t>Q</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -49,8 +74,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -330,13 +356,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="73.5703125" customWidth="1"/>
+    <col min="2" max="2" width="101.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Question/Languages/C#/C#_A.xlsx
+++ b/Question/Languages/C#/C#_A.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zaman\Desktop\RP\Question\Languages\C#\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{016E4806-00C2-4C97-A41B-04C90BD346AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F8CA6A4-1385-41AC-A141-D12F9924F756}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,12 +25,36 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Q</t>
   </si>
   <si>
     <t>A</t>
+  </si>
+  <si>
+    <t>Explain the difference between the Stack and the Heap.</t>
+  </si>
+  <si>
+    <t>We can say the Stack is responsible for keeping track of what is actually executing and where each executing thread is (each thread has its own Stack). The Heap, on the other hand, is responsible for keeping track of the data, or more precise objects.</t>
+  </si>
+  <si>
+    <t>Explain what inheritance is, and why it’s important.</t>
+  </si>
+  <si>
+    <t>Inheritance is one of the most important concepts in object-oriented programming, together with encapsulation and polymorphism. Inheritance allows developers to create new classes that reuse, extend, and modify the behavior defined in other classes. This enables code reuse and speeds up development. With inheritance, developers can write and debug one class only once, and then reuse that same code as the basis for the new classes. The class whose members are inherited is called the base class, and the class that inherits those members is called the derived class. By default, all classes in .NET are inheritable</t>
+  </si>
+  <si>
+    <t>An interface merely declares a contract or a behavior that implementing classes should have. It may declare only properties, methods, and events with no access modifiers. All the declared members must be implemented.</t>
+  </si>
+  <si>
+    <t>An abstract class provides a partial implementation for a functionality and some abstract/virtual members that must be implemented by the inheriting entities. It can declare fields too.</t>
+  </si>
+  <si>
+    <t>Neither interfaces nor abstract classes can be instantiated.</t>
+  </si>
+  <si>
+    <t>Explain the differences between an Interface and an Abstract Class in .NET</t>
   </si>
 </sst>
 </file>
@@ -357,10 +381,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -377,6 +401,40 @@
         <v>1</v>
       </c>
     </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
